--- a/Capstone_Real_Estate_Profits_Data_Analytics/3.4First_Best_Fit_Line.xlsx
+++ b/Capstone_Real_Estate_Profits_Data_Analytics/3.4First_Best_Fit_Line.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apocrypse\OneDrive\Study\mySQL\Coursera_Managing_Big_Data_with_MySQL\Capstone_Real_Estate_Profits_Data_Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_5648392B20566B05330867194E9CA834D2FED1FA" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{7C62BF4F-9D2F-469F-9ECF-F4FE3638E342}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_5648392B20566B05330867194E9CA834D2FED1FA" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{D663DA64-EB64-42B3-BE04-486FA84DBFB9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1008" windowWidth="23040" windowHeight="7992" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2016" windowWidth="23040" windowHeight="7992" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First Best-Fit Line" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="265">
   <si>
     <t xml:space="preserve">key </t>
   </si>
@@ -818,9 +818,6 @@
   </si>
   <si>
     <t>house</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>Calculated Occupancy Rate</t>
@@ -944,12 +941,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -961,11 +959,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1879,7 +1880,7 @@
             <c:numRef>
               <c:f>'First Best-Fit Line'!$J$4:$J$247</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="244"/>
                 <c:pt idx="0">
                   <c:v>0.16159999999999999</c:v>
@@ -3722,9 +3723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3804,7 +3803,7 @@
         <v>17</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3825,7 +3824,7 @@
         <v>0.97299999999999998</v>
       </c>
       <c r="F4" s="10">
-        <f>D4*12*E4</f>
+        <f>$D4*12*$E4</f>
         <v>12376.56</v>
       </c>
       <c r="G4">
@@ -3837,10 +3836,10 @@
       <c r="I4">
         <v>148</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="12">
         <v>0.16159999999999999</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="11">
         <f>0.5085-0.0002*$I4</f>
         <v>0.47889999999999994</v>
       </c>
@@ -3863,7 +3862,7 @@
         <v>0.97299999999999998</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" ref="F5:F68" si="1">D5*12*E5</f>
+        <f t="shared" ref="F5:F68" si="1">$D5*12*$E5</f>
         <v>14011.199999999999</v>
       </c>
       <c r="G5">
@@ -3875,10 +3874,10 @@
       <c r="I5">
         <v>133</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="12">
         <v>0.34789999999999999</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="11">
         <f t="shared" ref="K5:K68" si="2">0.5085-0.0002*$I5</f>
         <v>0.48189999999999994</v>
       </c>
@@ -3913,10 +3912,10 @@
       <c r="I6">
         <v>372</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="12">
         <v>0.39729999999999999</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="11">
         <f t="shared" si="2"/>
         <v>0.43409999999999993</v>
       </c>
@@ -3942,8 +3941,8 @@
         <f t="shared" si="1"/>
         <v>16346.4</v>
       </c>
-      <c r="G7" t="s">
-        <v>264</v>
+      <c r="G7">
+        <v>178</v>
       </c>
       <c r="H7">
         <v>533</v>
@@ -3951,10 +3950,10 @@
       <c r="I7">
         <v>302</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="12">
         <v>0.3644</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="11">
         <f t="shared" si="2"/>
         <v>0.44809999999999994</v>
       </c>
@@ -3989,10 +3988,10 @@
       <c r="I8">
         <v>429</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="12">
         <v>0.41099999999999998</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="11">
         <f t="shared" si="2"/>
         <v>0.42269999999999996</v>
       </c>
@@ -4027,10 +4026,10 @@
       <c r="I9">
         <v>380</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="12">
         <v>0.41099999999999998</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="11">
         <f t="shared" si="2"/>
         <v>0.43249999999999994</v>
       </c>
@@ -4065,10 +4064,10 @@
       <c r="I10">
         <v>374</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="12">
         <v>0.52600000000000002</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="11">
         <f t="shared" si="2"/>
         <v>0.43369999999999997</v>
       </c>
@@ -4103,10 +4102,10 @@
       <c r="I11">
         <v>386</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="12">
         <v>0.43290000000000001</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="11">
         <f t="shared" si="2"/>
         <v>0.43129999999999996</v>
       </c>
@@ -4141,10 +4140,10 @@
       <c r="I12">
         <v>212</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="12">
         <v>0.69589999999999996</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="11">
         <f t="shared" si="2"/>
         <v>0.46609999999999996</v>
       </c>
@@ -4179,10 +4178,10 @@
       <c r="I13">
         <v>969</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="12">
         <v>0.1096</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="11">
         <f t="shared" si="2"/>
         <v>0.31469999999999998</v>
       </c>
@@ -4217,10 +4216,10 @@
       <c r="I14">
         <v>885</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="12">
         <v>0.22470000000000001</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="11">
         <f t="shared" si="2"/>
         <v>0.33149999999999991</v>
       </c>
@@ -4255,10 +4254,10 @@
       <c r="I15">
         <v>287</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="12">
         <v>0.21920000000000001</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="11">
         <f t="shared" si="2"/>
         <v>0.45109999999999995</v>
       </c>
@@ -4293,10 +4292,10 @@
       <c r="I16">
         <v>206</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="12">
         <v>0.39179999999999998</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="11">
         <f t="shared" si="2"/>
         <v>0.46729999999999994</v>
       </c>
@@ -4331,10 +4330,10 @@
       <c r="I17">
         <v>462</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="12">
         <v>0.53700000000000003</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="11">
         <f t="shared" si="2"/>
         <v>0.41609999999999991</v>
       </c>
@@ -4369,10 +4368,10 @@
       <c r="I18">
         <v>389</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="12">
         <v>0.51229999999999998</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="11">
         <f t="shared" si="2"/>
         <v>0.43069999999999997</v>
       </c>
@@ -4407,10 +4406,10 @@
       <c r="I19">
         <v>678</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="12">
         <v>0.36159999999999998</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="11">
         <f t="shared" si="2"/>
         <v>0.37289999999999995</v>
       </c>
@@ -4445,10 +4444,10 @@
       <c r="I20">
         <v>163</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="12">
         <v>0.84379999999999999</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="11">
         <f t="shared" si="2"/>
         <v>0.47589999999999993</v>
       </c>
@@ -4483,10 +4482,10 @@
       <c r="I21">
         <v>374</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="12">
         <v>0.91510000000000002</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="11">
         <f t="shared" si="2"/>
         <v>0.43369999999999997</v>
       </c>
@@ -4521,10 +4520,10 @@
       <c r="I22">
         <v>444</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="12">
         <v>0.43009999999999998</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="11">
         <f t="shared" si="2"/>
         <v>0.41969999999999996</v>
       </c>
@@ -4559,10 +4558,10 @@
       <c r="I23">
         <v>426</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="12">
         <v>0.48220000000000002</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="11">
         <f t="shared" si="2"/>
         <v>0.42329999999999995</v>
       </c>
@@ -4597,10 +4596,10 @@
       <c r="I24">
         <v>332</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="12">
         <v>0.4904</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="11">
         <f t="shared" si="2"/>
         <v>0.44209999999999994</v>
       </c>
@@ -4635,10 +4634,10 @@
       <c r="I25">
         <v>430</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="12">
         <v>0.52329999999999999</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="11">
         <f t="shared" si="2"/>
         <v>0.42249999999999993</v>
       </c>
@@ -4673,10 +4672,10 @@
       <c r="I26">
         <v>662</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="12">
         <v>0.44929999999999998</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="11">
         <f t="shared" si="2"/>
         <v>0.37609999999999993</v>
       </c>
@@ -4711,10 +4710,10 @@
       <c r="I27">
         <v>186</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="12">
         <v>0.6603</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="11">
         <f t="shared" si="2"/>
         <v>0.47129999999999994</v>
       </c>
@@ -4749,10 +4748,10 @@
       <c r="I28">
         <v>696</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="12">
         <v>0.48770000000000002</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="11">
         <f t="shared" si="2"/>
         <v>0.36929999999999996</v>
       </c>
@@ -4787,10 +4786,10 @@
       <c r="I29">
         <v>182</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="12">
         <v>0.43840000000000001</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="11">
         <f t="shared" si="2"/>
         <v>0.47209999999999996</v>
       </c>
@@ -4825,10 +4824,10 @@
       <c r="I30">
         <v>241</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="12">
         <v>0.53149999999999997</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="11">
         <f t="shared" si="2"/>
         <v>0.46029999999999993</v>
       </c>
@@ -4863,10 +4862,10 @@
       <c r="I31">
         <v>363</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="12">
         <v>0.13969999999999999</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="11">
         <f t="shared" si="2"/>
         <v>0.43589999999999995</v>
       </c>
@@ -4901,10 +4900,10 @@
       <c r="I32">
         <v>301</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="12">
         <v>0.46850000000000003</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="11">
         <f t="shared" si="2"/>
         <v>0.44829999999999992</v>
       </c>
@@ -4939,10 +4938,10 @@
       <c r="I33">
         <v>212</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="12">
         <v>0.50139999999999996</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="11">
         <f t="shared" si="2"/>
         <v>0.46609999999999996</v>
       </c>
@@ -4977,10 +4976,10 @@
       <c r="I34">
         <v>340</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="12">
         <v>0.30680000000000002</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="11">
         <f t="shared" si="2"/>
         <v>0.44049999999999995</v>
       </c>
@@ -5015,10 +5014,10 @@
       <c r="I35">
         <v>266</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="12">
         <v>0.52049999999999996</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="11">
         <f t="shared" si="2"/>
         <v>0.45529999999999993</v>
       </c>
@@ -5053,10 +5052,10 @@
       <c r="I36">
         <v>442</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="12">
         <v>0.1288</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="11">
         <f t="shared" si="2"/>
         <v>0.42009999999999992</v>
       </c>
@@ -5091,10 +5090,10 @@
       <c r="I37">
         <v>354</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="12">
         <v>0.24110000000000001</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="11">
         <f t="shared" si="2"/>
         <v>0.43769999999999998</v>
       </c>
@@ -5129,10 +5128,10 @@
       <c r="I38">
         <v>123</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="12">
         <v>0.4521</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="11">
         <f t="shared" si="2"/>
         <v>0.48389999999999994</v>
       </c>
@@ -5167,10 +5166,10 @@
       <c r="I39">
         <v>377</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="12">
         <v>0.47949999999999998</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="11">
         <f t="shared" si="2"/>
         <v>0.43309999999999993</v>
       </c>
@@ -5205,10 +5204,10 @@
       <c r="I40">
         <v>318</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="12">
         <v>0.2712</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="11">
         <f t="shared" si="2"/>
         <v>0.44489999999999996</v>
       </c>
@@ -5243,10 +5242,10 @@
       <c r="I41">
         <v>198</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="12">
         <v>0.43009999999999998</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="11">
         <f t="shared" si="2"/>
         <v>0.46889999999999993</v>
       </c>
@@ -5281,10 +5280,10 @@
       <c r="I42">
         <v>149</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="12">
         <v>0.56710000000000005</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="11">
         <f t="shared" si="2"/>
         <v>0.47869999999999996</v>
       </c>
@@ -5319,10 +5318,10 @@
       <c r="I43">
         <v>210</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="12">
         <v>0.32050000000000001</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="11">
         <f t="shared" si="2"/>
         <v>0.46649999999999997</v>
       </c>
@@ -5357,10 +5356,10 @@
       <c r="I44">
         <v>187</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="12">
         <v>0.44929999999999998</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="11">
         <f t="shared" si="2"/>
         <v>0.47109999999999996</v>
       </c>
@@ -5395,10 +5394,10 @@
       <c r="I45">
         <v>225</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="12">
         <v>0.50960000000000005</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="11">
         <f t="shared" si="2"/>
         <v>0.46349999999999997</v>
       </c>
@@ -5433,10 +5432,10 @@
       <c r="I46">
         <v>123</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="12">
         <v>0.72050000000000003</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="11">
         <f t="shared" si="2"/>
         <v>0.48389999999999994</v>
       </c>
@@ -5471,10 +5470,10 @@
       <c r="I47">
         <v>263</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="12">
         <v>0.49590000000000001</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="11">
         <f t="shared" si="2"/>
         <v>0.45589999999999997</v>
       </c>
@@ -5509,10 +5508,10 @@
       <c r="I48">
         <v>238</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="12">
         <v>0.44929999999999998</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="11">
         <f t="shared" si="2"/>
         <v>0.46089999999999998</v>
       </c>
@@ -5547,10 +5546,10 @@
       <c r="I49">
         <v>146</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="12">
         <v>0.53149999999999997</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="11">
         <f t="shared" si="2"/>
         <v>0.47929999999999995</v>
       </c>
@@ -5585,10 +5584,10 @@
       <c r="I50">
         <v>349</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="12">
         <v>0.1507</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="11">
         <f t="shared" si="2"/>
         <v>0.43869999999999998</v>
       </c>
@@ -5623,10 +5622,10 @@
       <c r="I51">
         <v>147</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="12">
         <v>0.6</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="11">
         <f t="shared" si="2"/>
         <v>0.47909999999999997</v>
       </c>
@@ -5661,10 +5660,10 @@
       <c r="I52">
         <v>151</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="12">
         <v>0.52600000000000002</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="11">
         <f t="shared" si="2"/>
         <v>0.47829999999999995</v>
       </c>
@@ -5699,10 +5698,10 @@
       <c r="I53">
         <v>429</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="12">
         <v>0.21099999999999999</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="11">
         <f t="shared" si="2"/>
         <v>0.42269999999999996</v>
       </c>
@@ -5737,10 +5736,10 @@
       <c r="I54">
         <v>441</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="12">
         <v>0.33150000000000002</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="11">
         <f t="shared" si="2"/>
         <v>0.42029999999999995</v>
       </c>
@@ -5775,10 +5774,10 @@
       <c r="I55">
         <v>144</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="12">
         <v>0.32879999999999998</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="11">
         <f t="shared" si="2"/>
         <v>0.47969999999999996</v>
       </c>
@@ -5813,10 +5812,10 @@
       <c r="I56">
         <v>136</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="12">
         <v>0.61919999999999997</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="11">
         <f t="shared" si="2"/>
         <v>0.48129999999999995</v>
       </c>
@@ -5851,10 +5850,10 @@
       <c r="I57">
         <v>305</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="12">
         <v>0.2712</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="11">
         <f t="shared" si="2"/>
         <v>0.44749999999999995</v>
       </c>
@@ -5889,10 +5888,10 @@
       <c r="I58">
         <v>425</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58" s="12">
         <v>0.32879999999999998</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="11">
         <f t="shared" si="2"/>
         <v>0.42349999999999993</v>
       </c>
@@ -5927,10 +5926,10 @@
       <c r="I59">
         <v>176</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J59" s="12">
         <v>0.41370000000000001</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="11">
         <f t="shared" si="2"/>
         <v>0.47329999999999994</v>
       </c>
@@ -5965,10 +5964,10 @@
       <c r="I60">
         <v>169</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J60" s="12">
         <v>0.47949999999999998</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="11">
         <f t="shared" si="2"/>
         <v>0.47469999999999996</v>
       </c>
@@ -6003,10 +6002,10 @@
       <c r="I61">
         <v>207</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J61" s="12">
         <v>0.63009999999999999</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="11">
         <f t="shared" si="2"/>
         <v>0.46709999999999996</v>
       </c>
@@ -6041,10 +6040,10 @@
       <c r="I62">
         <v>244</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62" s="12">
         <v>0.90410000000000001</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="11">
         <f t="shared" si="2"/>
         <v>0.45969999999999994</v>
       </c>
@@ -6079,10 +6078,10 @@
       <c r="I63">
         <v>536</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J63" s="12">
         <v>0.54249999999999998</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="11">
         <f t="shared" si="2"/>
         <v>0.40129999999999993</v>
       </c>
@@ -6117,10 +6116,10 @@
       <c r="I64">
         <v>476</v>
       </c>
-      <c r="J64" s="4">
+      <c r="J64" s="12">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="11">
         <f t="shared" si="2"/>
         <v>0.41329999999999995</v>
       </c>
@@ -6155,10 +6154,10 @@
       <c r="I65">
         <v>360</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J65" s="12">
         <v>0.55069999999999997</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="11">
         <f t="shared" si="2"/>
         <v>0.43649999999999994</v>
       </c>
@@ -6193,10 +6192,10 @@
       <c r="I66">
         <v>1477</v>
       </c>
-      <c r="J66" s="4">
+      <c r="J66" s="12">
         <v>0.69320000000000004</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="11">
         <f t="shared" si="2"/>
         <v>0.21309999999999996</v>
       </c>
@@ -6231,10 +6230,10 @@
       <c r="I67">
         <v>1265</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J67" s="12">
         <v>0.71509999999999996</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="11">
         <f t="shared" si="2"/>
         <v>0.25549999999999995</v>
       </c>
@@ -6269,10 +6268,10 @@
       <c r="I68">
         <v>328</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J68" s="12">
         <v>0.52049999999999996</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="11">
         <f t="shared" si="2"/>
         <v>0.44289999999999996</v>
       </c>
@@ -6295,7 +6294,7 @@
         <v>0.97299999999999998</v>
       </c>
       <c r="F69" s="10">
-        <f t="shared" ref="F69:F132" si="4">D69*12*E69</f>
+        <f t="shared" ref="F69:F132" si="4">$D69*12*$E69</f>
         <v>19849.2</v>
       </c>
       <c r="G69">
@@ -6307,10 +6306,10 @@
       <c r="I69">
         <v>246</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J69" s="12">
         <v>0.15890000000000001</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="11">
         <f t="shared" ref="K69:K132" si="5">0.5085-0.0002*$I69</f>
         <v>0.45929999999999993</v>
       </c>
@@ -6345,10 +6344,10 @@
       <c r="I70">
         <v>325</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J70" s="12">
         <v>0.54520000000000002</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="11">
         <f t="shared" si="5"/>
         <v>0.44349999999999995</v>
       </c>
@@ -6383,10 +6382,10 @@
       <c r="I71">
         <v>94</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J71" s="12">
         <v>0.47949999999999998</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="11">
         <f t="shared" si="5"/>
         <v>0.48969999999999997</v>
       </c>
@@ -6421,10 +6420,10 @@
       <c r="I72">
         <v>428</v>
       </c>
-      <c r="J72" s="4">
+      <c r="J72" s="12">
         <v>0.58630000000000004</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="11">
         <f t="shared" si="5"/>
         <v>0.42289999999999994</v>
       </c>
@@ -6459,10 +6458,10 @@
       <c r="I73">
         <v>188</v>
       </c>
-      <c r="J73" s="4">
+      <c r="J73" s="12">
         <v>0.67949999999999999</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="11">
         <f t="shared" si="5"/>
         <v>0.47089999999999993</v>
       </c>
@@ -6497,10 +6496,10 @@
       <c r="I74">
         <v>274</v>
       </c>
-      <c r="J74" s="4">
+      <c r="J74" s="12">
         <v>0.57809999999999995</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="11">
         <f t="shared" si="5"/>
         <v>0.45369999999999994</v>
       </c>
@@ -6535,10 +6534,10 @@
       <c r="I75">
         <v>860</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J75" s="12">
         <v>0.41099999999999998</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="11">
         <f t="shared" si="5"/>
         <v>0.33649999999999991</v>
       </c>
@@ -6573,10 +6572,10 @@
       <c r="I76">
         <v>729</v>
       </c>
-      <c r="J76" s="4">
+      <c r="J76" s="12">
         <v>0.68220000000000003</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="11">
         <f t="shared" si="5"/>
         <v>0.36269999999999991</v>
       </c>
@@ -6611,10 +6610,10 @@
       <c r="I77">
         <v>174</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J77" s="12">
         <v>0.82469999999999999</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="11">
         <f t="shared" si="5"/>
         <v>0.47369999999999995</v>
       </c>
@@ -6649,10 +6648,10 @@
       <c r="I78">
         <v>308</v>
       </c>
-      <c r="J78" s="4">
+      <c r="J78" s="12">
         <v>0.21640000000000001</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="11">
         <f t="shared" si="5"/>
         <v>0.44689999999999996</v>
       </c>
@@ -6687,10 +6686,10 @@
       <c r="I79">
         <v>308</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J79" s="12">
         <v>0.6</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="11">
         <f t="shared" si="5"/>
         <v>0.44689999999999996</v>
       </c>
@@ -6725,10 +6724,10 @@
       <c r="I80">
         <v>342</v>
       </c>
-      <c r="J80" s="4">
+      <c r="J80" s="12">
         <v>0.39179999999999998</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="11">
         <f t="shared" si="5"/>
         <v>0.44009999999999994</v>
       </c>
@@ -6763,10 +6762,10 @@
       <c r="I81">
         <v>229</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J81" s="12">
         <v>0.58899999999999997</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="11">
         <f t="shared" si="5"/>
         <v>0.46269999999999994</v>
       </c>
@@ -6801,10 +6800,10 @@
       <c r="I82">
         <v>392</v>
       </c>
-      <c r="J82" s="4">
+      <c r="J82" s="12">
         <v>0.29320000000000002</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="11">
         <f t="shared" si="5"/>
         <v>0.43009999999999993</v>
       </c>
@@ -6839,10 +6838,10 @@
       <c r="I83">
         <v>322</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J83" s="12">
         <v>0.2712</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="11">
         <f t="shared" si="5"/>
         <v>0.44409999999999994</v>
       </c>
@@ -6877,10 +6876,10 @@
       <c r="I84">
         <v>257</v>
       </c>
-      <c r="J84" s="4">
+      <c r="J84" s="12">
         <v>0.55069999999999997</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="11">
         <f t="shared" si="5"/>
         <v>0.45709999999999995</v>
       </c>
@@ -6915,10 +6914,10 @@
       <c r="I85">
         <v>286</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J85" s="12">
         <v>0.4521</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="11">
         <f t="shared" si="5"/>
         <v>0.45129999999999992</v>
       </c>
@@ -6953,10 +6952,10 @@
       <c r="I86">
         <v>180</v>
       </c>
-      <c r="J86" s="4">
+      <c r="J86" s="12">
         <v>0.51780000000000004</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="11">
         <f t="shared" si="5"/>
         <v>0.47249999999999992</v>
       </c>
@@ -6991,10 +6990,10 @@
       <c r="I87">
         <v>230</v>
       </c>
-      <c r="J87" s="4">
+      <c r="J87" s="12">
         <v>0.52049999999999996</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="11">
         <f t="shared" si="5"/>
         <v>0.46249999999999997</v>
       </c>
@@ -7029,10 +7028,10 @@
       <c r="I88">
         <v>221</v>
       </c>
-      <c r="J88" s="4">
+      <c r="J88" s="12">
         <v>0.63009999999999999</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="11">
         <f t="shared" si="5"/>
         <v>0.46429999999999993</v>
       </c>
@@ -7067,10 +7066,10 @@
       <c r="I89">
         <v>316</v>
       </c>
-      <c r="J89" s="4">
+      <c r="J89" s="12">
         <v>0.36990000000000001</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="11">
         <f t="shared" si="5"/>
         <v>0.44529999999999992</v>
       </c>
@@ -7105,10 +7104,10 @@
       <c r="I90">
         <v>245</v>
       </c>
-      <c r="J90" s="4">
+      <c r="J90" s="12">
         <v>0.56989999999999996</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="11">
         <f t="shared" si="5"/>
         <v>0.45949999999999996</v>
       </c>
@@ -7143,10 +7142,10 @@
       <c r="I91">
         <v>266</v>
       </c>
-      <c r="J91" s="4">
+      <c r="J91" s="12">
         <v>0.41920000000000002</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="11">
         <f t="shared" si="5"/>
         <v>0.45529999999999993</v>
       </c>
@@ -7181,10 +7180,10 @@
       <c r="I92">
         <v>325</v>
       </c>
-      <c r="J92" s="4">
+      <c r="J92" s="12">
         <v>0.45479999999999998</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="11">
         <f t="shared" si="5"/>
         <v>0.44349999999999995</v>
       </c>
@@ -7219,10 +7218,10 @@
       <c r="I93">
         <v>393</v>
       </c>
-      <c r="J93" s="4">
+      <c r="J93" s="12">
         <v>0.62190000000000001</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="11">
         <f t="shared" si="5"/>
         <v>0.42989999999999995</v>
       </c>
@@ -7257,10 +7256,10 @@
       <c r="I94">
         <v>256</v>
       </c>
-      <c r="J94" s="4">
+      <c r="J94" s="12">
         <v>0.70960000000000001</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="11">
         <f t="shared" si="5"/>
         <v>0.45729999999999993</v>
       </c>
@@ -7295,10 +7294,10 @@
       <c r="I95">
         <v>184</v>
       </c>
-      <c r="J95" s="4">
+      <c r="J95" s="12">
         <v>0.30959999999999999</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="11">
         <f t="shared" si="5"/>
         <v>0.47169999999999995</v>
       </c>
@@ -7333,10 +7332,10 @@
       <c r="I96">
         <v>427</v>
       </c>
-      <c r="J96" s="4">
+      <c r="J96" s="12">
         <v>0.24110000000000001</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="11">
         <f t="shared" si="5"/>
         <v>0.42309999999999992</v>
       </c>
@@ -7371,10 +7370,10 @@
       <c r="I97">
         <v>418</v>
       </c>
-      <c r="J97" s="4">
+      <c r="J97" s="12">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="11">
         <f t="shared" si="5"/>
         <v>0.42489999999999994</v>
       </c>
@@ -7409,10 +7408,10 @@
       <c r="I98">
         <v>219</v>
       </c>
-      <c r="J98" s="4">
+      <c r="J98" s="12">
         <v>0.63560000000000005</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="11">
         <f t="shared" si="5"/>
         <v>0.46469999999999995</v>
       </c>
@@ -7447,10 +7446,10 @@
       <c r="I99">
         <v>220</v>
       </c>
-      <c r="J99" s="4">
+      <c r="J99" s="12">
         <v>0.43009999999999998</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="11">
         <f t="shared" si="5"/>
         <v>0.46449999999999997</v>
       </c>
@@ -7485,10 +7484,10 @@
       <c r="I100">
         <v>481</v>
       </c>
-      <c r="J100" s="4">
+      <c r="J100" s="12">
         <v>0.38080000000000003</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="11">
         <f t="shared" si="5"/>
         <v>0.41229999999999994</v>
       </c>
@@ -7523,10 +7522,10 @@
       <c r="I101">
         <v>280</v>
       </c>
-      <c r="J101" s="4">
+      <c r="J101" s="12">
         <v>0.45750000000000002</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="11">
         <f t="shared" si="5"/>
         <v>0.45249999999999996</v>
       </c>
@@ -7561,10 +7560,10 @@
       <c r="I102">
         <v>556</v>
       </c>
-      <c r="J102" s="4">
+      <c r="J102" s="12">
         <v>0.29859999999999998</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="11">
         <f t="shared" si="5"/>
         <v>0.39729999999999993</v>
       </c>
@@ -7599,10 +7598,10 @@
       <c r="I103">
         <v>318</v>
       </c>
-      <c r="J103" s="4">
+      <c r="J103" s="12">
         <v>0.39179999999999998</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="11">
         <f t="shared" si="5"/>
         <v>0.44489999999999996</v>
       </c>
@@ -7637,10 +7636,10 @@
       <c r="I104">
         <v>680</v>
       </c>
-      <c r="J104" s="4">
+      <c r="J104" s="12">
         <v>0.38629999999999998</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="11">
         <f t="shared" si="5"/>
         <v>0.37249999999999994</v>
       </c>
@@ -7675,10 +7674,10 @@
       <c r="I105">
         <v>202</v>
       </c>
-      <c r="J105" s="4">
+      <c r="J105" s="12">
         <v>0.48770000000000002</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="11">
         <f t="shared" si="5"/>
         <v>0.46809999999999996</v>
       </c>
@@ -7713,10 +7712,10 @@
       <c r="I106">
         <v>579</v>
       </c>
-      <c r="J106" s="4">
+      <c r="J106" s="12">
         <v>0.41099999999999998</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="11">
         <f t="shared" si="5"/>
         <v>0.39269999999999994</v>
       </c>
@@ -7751,10 +7750,10 @@
       <c r="I107">
         <v>524</v>
       </c>
-      <c r="J107" s="4">
+      <c r="J107" s="12">
         <v>0.50409999999999999</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="11">
         <f t="shared" si="5"/>
         <v>0.40369999999999995</v>
       </c>
@@ -7789,10 +7788,10 @@
       <c r="I108">
         <v>560</v>
       </c>
-      <c r="J108" s="4">
+      <c r="J108" s="12">
         <v>0.2767</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="11">
         <f t="shared" si="5"/>
         <v>0.39649999999999996</v>
       </c>
@@ -7827,10 +7826,10 @@
       <c r="I109">
         <v>362</v>
       </c>
-      <c r="J109" s="4">
+      <c r="J109" s="12">
         <v>0.32879999999999998</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="11">
         <f t="shared" si="5"/>
         <v>0.43609999999999993</v>
       </c>
@@ -7865,10 +7864,10 @@
       <c r="I110">
         <v>417</v>
       </c>
-      <c r="J110" s="4">
+      <c r="J110" s="12">
         <v>0.53149999999999997</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="11">
         <f t="shared" si="5"/>
         <v>0.42509999999999992</v>
       </c>
@@ -7903,10 +7902,10 @@
       <c r="I111">
         <v>474</v>
       </c>
-      <c r="J111" s="4">
+      <c r="J111" s="12">
         <v>0.4274</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="11">
         <f t="shared" si="5"/>
         <v>0.41369999999999996</v>
       </c>
@@ -7941,10 +7940,10 @@
       <c r="I112">
         <v>146</v>
       </c>
-      <c r="J112" s="4">
+      <c r="J112" s="12">
         <v>0.24110000000000001</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="11">
         <f t="shared" si="5"/>
         <v>0.47929999999999995</v>
       </c>
@@ -7979,10 +7978,10 @@
       <c r="I113">
         <v>568</v>
       </c>
-      <c r="J113" s="4">
+      <c r="J113" s="12">
         <v>0.189</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="11">
         <f t="shared" si="5"/>
         <v>0.39489999999999992</v>
       </c>
@@ -8017,10 +8016,10 @@
       <c r="I114">
         <v>318</v>
       </c>
-      <c r="J114" s="4">
+      <c r="J114" s="12">
         <v>0.29039999999999999</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="11">
         <f t="shared" si="5"/>
         <v>0.44489999999999996</v>
       </c>
@@ -8055,10 +8054,10 @@
       <c r="I115">
         <v>538</v>
       </c>
-      <c r="J115" s="4">
+      <c r="J115" s="12">
         <v>0.58079999999999998</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="11">
         <f t="shared" si="5"/>
         <v>0.40089999999999992</v>
       </c>
@@ -8093,10 +8092,10 @@
       <c r="I116">
         <v>312</v>
       </c>
-      <c r="J116" s="4">
+      <c r="J116" s="12">
         <v>0.41099999999999998</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="11">
         <f t="shared" si="5"/>
         <v>0.44609999999999994</v>
       </c>
@@ -8131,10 +8130,10 @@
       <c r="I117">
         <v>491</v>
       </c>
-      <c r="J117" s="4">
+      <c r="J117" s="12">
         <v>0.39729999999999999</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="11">
         <f t="shared" si="5"/>
         <v>0.41029999999999994</v>
       </c>
@@ -8169,10 +8168,10 @@
       <c r="I118">
         <v>204</v>
       </c>
-      <c r="J118" s="4">
+      <c r="J118" s="12">
         <v>0.79730000000000001</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="11">
         <f t="shared" si="5"/>
         <v>0.46769999999999995</v>
       </c>
@@ -8207,10 +8206,10 @@
       <c r="I119">
         <v>245</v>
       </c>
-      <c r="J119" s="4">
+      <c r="J119" s="12">
         <v>0.68769999999999998</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="11">
         <f t="shared" si="5"/>
         <v>0.45949999999999996</v>
       </c>
@@ -8245,10 +8244,10 @@
       <c r="I120">
         <v>197</v>
       </c>
-      <c r="J120" s="4">
+      <c r="J120" s="12">
         <v>0.58899999999999997</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="11">
         <f t="shared" si="5"/>
         <v>0.46909999999999996</v>
       </c>
@@ -8283,10 +8282,10 @@
       <c r="I121">
         <v>195</v>
       </c>
-      <c r="J121" s="4">
+      <c r="J121" s="12">
         <v>0.61919999999999997</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="11">
         <f t="shared" si="5"/>
         <v>0.46949999999999997</v>
       </c>
@@ -8321,10 +8320,10 @@
       <c r="I122">
         <v>124</v>
       </c>
-      <c r="J122" s="4">
+      <c r="J122" s="12">
         <v>0.45479999999999998</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="11">
         <f t="shared" si="5"/>
         <v>0.48369999999999996</v>
       </c>
@@ -8359,10 +8358,10 @@
       <c r="I123">
         <v>156</v>
       </c>
-      <c r="J123" s="4">
+      <c r="J123" s="12">
         <v>0.48770000000000002</v>
       </c>
-      <c r="K123">
+      <c r="K123" s="11">
         <f t="shared" si="5"/>
         <v>0.47729999999999995</v>
       </c>
@@ -8397,10 +8396,10 @@
       <c r="I124">
         <v>256</v>
       </c>
-      <c r="J124" s="4">
+      <c r="J124" s="12">
         <v>0.47949999999999998</v>
       </c>
-      <c r="K124">
+      <c r="K124" s="11">
         <f t="shared" si="5"/>
         <v>0.45729999999999993</v>
       </c>
@@ -8435,10 +8434,10 @@
       <c r="I125">
         <v>284</v>
       </c>
-      <c r="J125" s="4">
+      <c r="J125" s="12">
         <v>0.49320000000000003</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="11">
         <f t="shared" si="5"/>
         <v>0.45169999999999993</v>
       </c>
@@ -8473,10 +8472,10 @@
       <c r="I126">
         <v>128</v>
       </c>
-      <c r="J126" s="4">
+      <c r="J126" s="12">
         <v>0.36159999999999998</v>
       </c>
-      <c r="K126">
+      <c r="K126" s="11">
         <f t="shared" si="5"/>
         <v>0.48289999999999994</v>
       </c>
@@ -8511,10 +8510,10 @@
       <c r="I127">
         <v>337</v>
       </c>
-      <c r="J127" s="4">
+      <c r="J127" s="12">
         <v>0.4219</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="11">
         <f t="shared" si="5"/>
         <v>0.44109999999999994</v>
       </c>
@@ -8549,10 +8548,10 @@
       <c r="I128">
         <v>139</v>
       </c>
-      <c r="J128" s="4">
+      <c r="J128" s="12">
         <v>0.74250000000000005</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="11">
         <f t="shared" si="5"/>
         <v>0.48069999999999996</v>
       </c>
@@ -8587,10 +8586,10 @@
       <c r="I129">
         <v>240</v>
       </c>
-      <c r="J129" s="4">
+      <c r="J129" s="12">
         <v>0.36990000000000001</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="11">
         <f t="shared" si="5"/>
         <v>0.46049999999999996</v>
       </c>
@@ -8625,10 +8624,10 @@
       <c r="I130">
         <v>203</v>
       </c>
-      <c r="J130" s="4">
+      <c r="J130" s="12">
         <v>0.2712</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="11">
         <f t="shared" si="5"/>
         <v>0.46789999999999993</v>
       </c>
@@ -8663,10 +8662,10 @@
       <c r="I131">
         <v>240</v>
       </c>
-      <c r="J131" s="4">
+      <c r="J131" s="12">
         <v>0.76160000000000005</v>
       </c>
-      <c r="K131">
+      <c r="K131" s="11">
         <f t="shared" si="5"/>
         <v>0.46049999999999996</v>
       </c>
@@ -8701,10 +8700,10 @@
       <c r="I132">
         <v>312</v>
       </c>
-      <c r="J132" s="4">
+      <c r="J132" s="12">
         <v>0.60819999999999996</v>
       </c>
-      <c r="K132">
+      <c r="K132" s="11">
         <f t="shared" si="5"/>
         <v>0.44609999999999994</v>
       </c>
@@ -8727,7 +8726,7 @@
         <v>0.97299999999999998</v>
       </c>
       <c r="F133" s="10">
-        <f t="shared" ref="F133:F196" si="7">D133*12*E133</f>
+        <f t="shared" ref="F133:F196" si="7">$D133*12*$E133</f>
         <v>12901.98</v>
       </c>
       <c r="G133">
@@ -8739,10 +8738,10 @@
       <c r="I133">
         <v>111</v>
       </c>
-      <c r="J133" s="4">
+      <c r="J133" s="12">
         <v>0.61099999999999999</v>
       </c>
-      <c r="K133">
+      <c r="K133" s="11">
         <f t="shared" ref="K133:K196" si="8">0.5085-0.0002*$I133</f>
         <v>0.48629999999999995</v>
       </c>
@@ -8777,10 +8776,10 @@
       <c r="I134">
         <v>169</v>
       </c>
-      <c r="J134" s="4">
+      <c r="J134" s="12">
         <v>0.30680000000000002</v>
       </c>
-      <c r="K134">
+      <c r="K134" s="11">
         <f t="shared" si="8"/>
         <v>0.47469999999999996</v>
       </c>
@@ -8815,10 +8814,10 @@
       <c r="I135">
         <v>201</v>
       </c>
-      <c r="J135" s="4">
+      <c r="J135" s="12">
         <v>0.52329999999999999</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="11">
         <f t="shared" si="8"/>
         <v>0.46829999999999994</v>
       </c>
@@ -8853,10 +8852,10 @@
       <c r="I136">
         <v>242</v>
       </c>
-      <c r="J136" s="4">
+      <c r="J136" s="12">
         <v>0.48220000000000002</v>
       </c>
-      <c r="K136">
+      <c r="K136" s="11">
         <f t="shared" si="8"/>
         <v>0.46009999999999995</v>
       </c>
@@ -8891,10 +8890,10 @@
       <c r="I137">
         <v>158</v>
       </c>
-      <c r="J137" s="4">
+      <c r="J137" s="12">
         <v>0.22189999999999999</v>
       </c>
-      <c r="K137">
+      <c r="K137" s="11">
         <f t="shared" si="8"/>
         <v>0.47689999999999994</v>
       </c>
@@ -8929,10 +8928,10 @@
       <c r="I138">
         <v>246</v>
       </c>
-      <c r="J138" s="4">
+      <c r="J138" s="12">
         <v>0.38900000000000001</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="11">
         <f t="shared" si="8"/>
         <v>0.45929999999999993</v>
       </c>
@@ -8967,10 +8966,10 @@
       <c r="I139">
         <v>207</v>
       </c>
-      <c r="J139" s="4">
+      <c r="J139" s="12">
         <v>0.41639999999999999</v>
       </c>
-      <c r="K139">
+      <c r="K139" s="11">
         <f t="shared" si="8"/>
         <v>0.46709999999999996</v>
       </c>
@@ -9005,10 +9004,10 @@
       <c r="I140">
         <v>224</v>
       </c>
-      <c r="J140" s="4">
+      <c r="J140" s="12">
         <v>0.4849</v>
       </c>
-      <c r="K140">
+      <c r="K140" s="11">
         <f t="shared" si="8"/>
         <v>0.46369999999999995</v>
       </c>
@@ -9043,10 +9042,10 @@
       <c r="I141">
         <v>139</v>
       </c>
-      <c r="J141" s="4">
+      <c r="J141" s="12">
         <v>0.55069999999999997</v>
       </c>
-      <c r="K141">
+      <c r="K141" s="11">
         <f t="shared" si="8"/>
         <v>0.48069999999999996</v>
       </c>
@@ -9081,10 +9080,10 @@
       <c r="I142">
         <v>283</v>
       </c>
-      <c r="J142" s="4">
+      <c r="J142" s="12">
         <v>0.29320000000000002</v>
       </c>
-      <c r="K142">
+      <c r="K142" s="11">
         <f t="shared" si="8"/>
         <v>0.45189999999999997</v>
       </c>
@@ -9119,10 +9118,10 @@
       <c r="I143">
         <v>192</v>
       </c>
-      <c r="J143" s="4">
+      <c r="J143" s="12">
         <v>0.50139999999999996</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="11">
         <f t="shared" si="8"/>
         <v>0.47009999999999996</v>
       </c>
@@ -9157,10 +9156,10 @@
       <c r="I144">
         <v>307</v>
       </c>
-      <c r="J144" s="4">
+      <c r="J144" s="12">
         <v>0.3014</v>
       </c>
-      <c r="K144">
+      <c r="K144" s="11">
         <f t="shared" si="8"/>
         <v>0.44709999999999994</v>
       </c>
@@ -9195,10 +9194,10 @@
       <c r="I145">
         <v>232</v>
       </c>
-      <c r="J145" s="4">
+      <c r="J145" s="12">
         <v>0.49859999999999999</v>
       </c>
-      <c r="K145">
+      <c r="K145" s="11">
         <f t="shared" si="8"/>
         <v>0.46209999999999996</v>
       </c>
@@ -9233,10 +9232,10 @@
       <c r="I146">
         <v>292</v>
       </c>
-      <c r="J146" s="4">
+      <c r="J146" s="12">
         <v>0.63839999999999997</v>
       </c>
-      <c r="K146">
+      <c r="K146" s="11">
         <f t="shared" si="8"/>
         <v>0.45009999999999994</v>
       </c>
@@ -9271,10 +9270,10 @@
       <c r="I147">
         <v>169</v>
       </c>
-      <c r="J147" s="4">
+      <c r="J147" s="12">
         <v>0.29039999999999999</v>
       </c>
-      <c r="K147">
+      <c r="K147" s="11">
         <f t="shared" si="8"/>
         <v>0.47469999999999996</v>
       </c>
@@ -9309,10 +9308,10 @@
       <c r="I148">
         <v>189</v>
       </c>
-      <c r="J148" s="4">
+      <c r="J148" s="12">
         <v>0.53969999999999996</v>
       </c>
-      <c r="K148">
+      <c r="K148" s="11">
         <f t="shared" si="8"/>
         <v>0.47069999999999995</v>
       </c>
@@ -9347,10 +9346,10 @@
       <c r="I149">
         <v>289</v>
       </c>
-      <c r="J149" s="4">
+      <c r="J149" s="12">
         <v>0.27950000000000003</v>
       </c>
-      <c r="K149">
+      <c r="K149" s="11">
         <f t="shared" si="8"/>
         <v>0.45069999999999993</v>
       </c>
@@ -9385,10 +9384,10 @@
       <c r="I150">
         <v>278</v>
       </c>
-      <c r="J150" s="4">
+      <c r="J150" s="12">
         <v>0.38900000000000001</v>
       </c>
-      <c r="K150">
+      <c r="K150" s="11">
         <f t="shared" si="8"/>
         <v>0.45289999999999997</v>
       </c>
@@ -9423,10 +9422,10 @@
       <c r="I151">
         <v>183</v>
       </c>
-      <c r="J151" s="4">
+      <c r="J151" s="12">
         <v>0.57530000000000003</v>
       </c>
-      <c r="K151">
+      <c r="K151" s="11">
         <f t="shared" si="8"/>
         <v>0.47189999999999993</v>
       </c>
@@ -9461,10 +9460,10 @@
       <c r="I152">
         <v>237</v>
       </c>
-      <c r="J152" s="4">
+      <c r="J152" s="12">
         <v>0.31230000000000002</v>
       </c>
-      <c r="K152">
+      <c r="K152" s="11">
         <f t="shared" si="8"/>
         <v>0.46109999999999995</v>
       </c>
@@ -9499,10 +9498,10 @@
       <c r="I153">
         <v>297</v>
       </c>
-      <c r="J153" s="4">
+      <c r="J153" s="12">
         <v>0.4521</v>
       </c>
-      <c r="K153">
+      <c r="K153" s="11">
         <f t="shared" si="8"/>
         <v>0.44909999999999994</v>
       </c>
@@ -9537,10 +9536,10 @@
       <c r="I154">
         <v>360</v>
       </c>
-      <c r="J154" s="4">
+      <c r="J154" s="12">
         <v>0.53149999999999997</v>
       </c>
-      <c r="K154">
+      <c r="K154" s="11">
         <f t="shared" si="8"/>
         <v>0.43649999999999994</v>
       </c>
@@ -9575,10 +9574,10 @@
       <c r="I155">
         <v>199</v>
       </c>
-      <c r="J155" s="4">
+      <c r="J155" s="12">
         <v>0.31230000000000002</v>
       </c>
-      <c r="K155">
+      <c r="K155" s="11">
         <f t="shared" si="8"/>
         <v>0.46869999999999995</v>
       </c>
@@ -9613,10 +9612,10 @@
       <c r="I156">
         <v>389</v>
       </c>
-      <c r="J156" s="4">
+      <c r="J156" s="12">
         <v>0.51229999999999998</v>
       </c>
-      <c r="K156">
+      <c r="K156" s="11">
         <f t="shared" si="8"/>
         <v>0.43069999999999997</v>
       </c>
@@ -9651,10 +9650,10 @@
       <c r="I157">
         <v>325</v>
       </c>
-      <c r="J157" s="4">
+      <c r="J157" s="12">
         <v>0.81640000000000001</v>
       </c>
-      <c r="K157">
+      <c r="K157" s="11">
         <f t="shared" si="8"/>
         <v>0.44349999999999995</v>
       </c>
@@ -9689,10 +9688,10 @@
       <c r="I158">
         <v>239</v>
       </c>
-      <c r="J158" s="4">
+      <c r="J158" s="12">
         <v>0.67669999999999997</v>
       </c>
-      <c r="K158">
+      <c r="K158" s="11">
         <f t="shared" si="8"/>
         <v>0.46069999999999994</v>
       </c>
@@ -9727,10 +9726,10 @@
       <c r="I159">
         <v>209</v>
       </c>
-      <c r="J159" s="4">
+      <c r="J159" s="12">
         <v>0.53969999999999996</v>
       </c>
-      <c r="K159">
+      <c r="K159" s="11">
         <f t="shared" si="8"/>
         <v>0.46669999999999995</v>
       </c>
@@ -9765,10 +9764,10 @@
       <c r="I160">
         <v>265</v>
       </c>
-      <c r="J160" s="4">
+      <c r="J160" s="12">
         <v>0.4027</v>
       </c>
-      <c r="K160">
+      <c r="K160" s="11">
         <f t="shared" si="8"/>
         <v>0.45549999999999996</v>
       </c>
@@ -9803,10 +9802,10 @@
       <c r="I161">
         <v>435</v>
       </c>
-      <c r="J161" s="4">
+      <c r="J161" s="12">
         <v>0.4</v>
       </c>
-      <c r="K161">
+      <c r="K161" s="11">
         <f t="shared" si="8"/>
         <v>0.42149999999999993</v>
       </c>
@@ -9841,10 +9840,10 @@
       <c r="I162">
         <v>487</v>
       </c>
-      <c r="J162" s="4">
+      <c r="J162" s="12">
         <v>0.43009999999999998</v>
       </c>
-      <c r="K162">
+      <c r="K162" s="11">
         <f t="shared" si="8"/>
         <v>0.41109999999999997</v>
       </c>
@@ -9879,10 +9878,10 @@
       <c r="I163">
         <v>231</v>
       </c>
-      <c r="J163" s="4">
+      <c r="J163" s="12">
         <v>0.4027</v>
       </c>
-      <c r="K163">
+      <c r="K163" s="11">
         <f t="shared" si="8"/>
         <v>0.46229999999999993</v>
       </c>
@@ -9917,10 +9916,10 @@
       <c r="I164">
         <v>249</v>
       </c>
-      <c r="J164" s="4">
+      <c r="J164" s="12">
         <v>0.44109999999999999</v>
       </c>
-      <c r="K164">
+      <c r="K164" s="11">
         <f t="shared" si="8"/>
         <v>0.45869999999999994</v>
       </c>
@@ -9955,10 +9954,10 @@
       <c r="I165">
         <v>107</v>
       </c>
-      <c r="J165" s="4">
+      <c r="J165" s="12">
         <v>0.47949999999999998</v>
       </c>
-      <c r="K165">
+      <c r="K165" s="11">
         <f t="shared" si="8"/>
         <v>0.48709999999999998</v>
       </c>
@@ -9993,10 +9992,10 @@
       <c r="I166">
         <v>147</v>
       </c>
-      <c r="J166" s="4">
+      <c r="J166" s="12">
         <v>0.41370000000000001</v>
       </c>
-      <c r="K166">
+      <c r="K166" s="11">
         <f t="shared" si="8"/>
         <v>0.47909999999999997</v>
       </c>
@@ -10031,10 +10030,10 @@
       <c r="I167">
         <v>246</v>
       </c>
-      <c r="J167" s="4">
+      <c r="J167" s="12">
         <v>0.44379999999999997</v>
       </c>
-      <c r="K167">
+      <c r="K167" s="11">
         <f t="shared" si="8"/>
         <v>0.45929999999999993</v>
       </c>
@@ -10069,10 +10068,10 @@
       <c r="I168">
         <v>169</v>
       </c>
-      <c r="J168" s="4">
+      <c r="J168" s="12">
         <v>0.61919999999999997</v>
       </c>
-      <c r="K168">
+      <c r="K168" s="11">
         <f t="shared" si="8"/>
         <v>0.47469999999999996</v>
       </c>
@@ -10107,10 +10106,10 @@
       <c r="I169">
         <v>174</v>
       </c>
-      <c r="J169" s="4">
+      <c r="J169" s="12">
         <v>0.54790000000000005</v>
       </c>
-      <c r="K169">
+      <c r="K169" s="11">
         <f t="shared" si="8"/>
         <v>0.47369999999999995</v>
       </c>
@@ -10145,10 +10144,10 @@
       <c r="I170">
         <v>180</v>
       </c>
-      <c r="J170" s="4">
+      <c r="J170" s="12">
         <v>0.34250000000000003</v>
       </c>
-      <c r="K170">
+      <c r="K170" s="11">
         <f t="shared" si="8"/>
         <v>0.47249999999999992</v>
       </c>
@@ -10183,10 +10182,10 @@
       <c r="I171">
         <v>260</v>
       </c>
-      <c r="J171" s="4">
+      <c r="J171" s="12">
         <v>0.6</v>
       </c>
-      <c r="K171">
+      <c r="K171" s="11">
         <f t="shared" si="8"/>
         <v>0.45649999999999996</v>
       </c>
@@ -10221,10 +10220,10 @@
       <c r="I172">
         <v>538</v>
       </c>
-      <c r="J172" s="4">
+      <c r="J172" s="12">
         <v>0.6</v>
       </c>
-      <c r="K172">
+      <c r="K172" s="11">
         <f t="shared" si="8"/>
         <v>0.40089999999999992</v>
       </c>
@@ -10259,10 +10258,10 @@
       <c r="I173">
         <v>288</v>
       </c>
-      <c r="J173" s="4">
+      <c r="J173" s="12">
         <v>0.2329</v>
       </c>
-      <c r="K173">
+      <c r="K173" s="11">
         <f t="shared" si="8"/>
         <v>0.45089999999999997</v>
       </c>
@@ -10297,10 +10296,10 @@
       <c r="I174">
         <v>415</v>
       </c>
-      <c r="J174" s="4">
+      <c r="J174" s="12">
         <v>0.40820000000000001</v>
       </c>
-      <c r="K174">
+      <c r="K174" s="11">
         <f t="shared" si="8"/>
         <v>0.42549999999999993</v>
       </c>
@@ -10335,10 +10334,10 @@
       <c r="I175">
         <v>387</v>
       </c>
-      <c r="J175" s="4">
+      <c r="J175" s="12">
         <v>0.32600000000000001</v>
       </c>
-      <c r="K175">
+      <c r="K175" s="11">
         <f t="shared" si="8"/>
         <v>0.43109999999999993</v>
       </c>
@@ -10373,10 +10372,10 @@
       <c r="I176">
         <v>575</v>
       </c>
-      <c r="J176" s="4">
+      <c r="J176" s="12">
         <v>0.38900000000000001</v>
       </c>
-      <c r="K176">
+      <c r="K176" s="11">
         <f t="shared" si="8"/>
         <v>0.39349999999999996</v>
       </c>
@@ -10411,10 +10410,10 @@
       <c r="I177">
         <v>620</v>
       </c>
-      <c r="J177" s="4">
+      <c r="J177" s="12">
         <v>0.29320000000000002</v>
       </c>
-      <c r="K177">
+      <c r="K177" s="11">
         <f t="shared" si="8"/>
         <v>0.38449999999999995</v>
       </c>
@@ -10449,10 +10448,10 @@
       <c r="I178">
         <v>235</v>
       </c>
-      <c r="J178" s="4">
+      <c r="J178" s="12">
         <v>0.6411</v>
       </c>
-      <c r="K178">
+      <c r="K178" s="11">
         <f t="shared" si="8"/>
         <v>0.46149999999999997</v>
       </c>
@@ -10487,10 +10486,10 @@
       <c r="I179">
         <v>284</v>
       </c>
-      <c r="J179" s="4">
+      <c r="J179" s="12">
         <v>0.50409999999999999</v>
       </c>
-      <c r="K179">
+      <c r="K179" s="11">
         <f t="shared" si="8"/>
         <v>0.45169999999999993</v>
       </c>
@@ -10525,10 +10524,10 @@
       <c r="I180">
         <v>355</v>
       </c>
-      <c r="J180" s="4">
+      <c r="J180" s="12">
         <v>0.4027</v>
       </c>
-      <c r="K180">
+      <c r="K180" s="11">
         <f t="shared" si="8"/>
         <v>0.43749999999999994</v>
       </c>
@@ -10563,10 +10562,10 @@
       <c r="I181">
         <v>436</v>
       </c>
-      <c r="J181" s="4">
+      <c r="J181" s="12">
         <v>0.50680000000000003</v>
       </c>
-      <c r="K181">
+      <c r="K181" s="11">
         <f t="shared" si="8"/>
         <v>0.42129999999999995</v>
       </c>
@@ -10601,10 +10600,10 @@
       <c r="I182">
         <v>228</v>
       </c>
-      <c r="J182" s="4">
+      <c r="J182" s="12">
         <v>0.52049999999999996</v>
       </c>
-      <c r="K182">
+      <c r="K182" s="11">
         <f t="shared" si="8"/>
         <v>0.46289999999999998</v>
       </c>
@@ -10639,10 +10638,10 @@
       <c r="I183">
         <v>250</v>
       </c>
-      <c r="J183" s="4">
+      <c r="J183" s="12">
         <v>0.36990000000000001</v>
       </c>
-      <c r="K183">
+      <c r="K183" s="11">
         <f t="shared" si="8"/>
         <v>0.45849999999999996</v>
       </c>
@@ -10677,10 +10676,10 @@
       <c r="I184">
         <v>443</v>
       </c>
-      <c r="J184" s="4">
+      <c r="J184" s="12">
         <v>0.2356</v>
       </c>
-      <c r="K184">
+      <c r="K184" s="11">
         <f t="shared" si="8"/>
         <v>0.41989999999999994</v>
       </c>
@@ -10715,10 +10714,10 @@
       <c r="I185">
         <v>343</v>
       </c>
-      <c r="J185" s="4">
+      <c r="J185" s="12">
         <v>0.58079999999999998</v>
       </c>
-      <c r="K185">
+      <c r="K185" s="11">
         <f t="shared" si="8"/>
         <v>0.43989999999999996</v>
       </c>
@@ -10753,10 +10752,10 @@
       <c r="I186">
         <v>739</v>
       </c>
-      <c r="J186" s="4">
+      <c r="J186" s="12">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="K186">
+      <c r="K186" s="11">
         <f t="shared" si="8"/>
         <v>0.36069999999999991</v>
       </c>
@@ -10791,10 +10790,10 @@
       <c r="I187">
         <v>270</v>
       </c>
-      <c r="J187" s="4">
+      <c r="J187" s="12">
         <v>0.46850000000000003</v>
       </c>
-      <c r="K187">
+      <c r="K187" s="11">
         <f t="shared" si="8"/>
         <v>0.45449999999999996</v>
       </c>
@@ -10829,10 +10828,10 @@
       <c r="I188">
         <v>424</v>
       </c>
-      <c r="J188" s="4">
+      <c r="J188" s="12">
         <v>0.34250000000000003</v>
       </c>
-      <c r="K188">
+      <c r="K188" s="11">
         <f t="shared" si="8"/>
         <v>0.42369999999999997</v>
       </c>
@@ -10867,10 +10866,10 @@
       <c r="I189">
         <v>980</v>
       </c>
-      <c r="J189" s="4">
+      <c r="J189" s="12">
         <v>0.2712</v>
       </c>
-      <c r="K189">
+      <c r="K189" s="11">
         <f t="shared" si="8"/>
         <v>0.31249999999999994</v>
       </c>
@@ -10905,10 +10904,10 @@
       <c r="I190">
         <v>337</v>
       </c>
-      <c r="J190" s="4">
+      <c r="J190" s="12">
         <v>0.46300000000000002</v>
       </c>
-      <c r="K190">
+      <c r="K190" s="11">
         <f t="shared" si="8"/>
         <v>0.44109999999999994</v>
       </c>
@@ -10943,10 +10942,10 @@
       <c r="I191">
         <v>154</v>
       </c>
-      <c r="J191" s="4">
+      <c r="J191" s="12">
         <v>0.67949999999999999</v>
       </c>
-      <c r="K191">
+      <c r="K191" s="11">
         <f t="shared" si="8"/>
         <v>0.47769999999999996</v>
       </c>
@@ -10981,10 +10980,10 @@
       <c r="I192">
         <v>432</v>
       </c>
-      <c r="J192" s="4">
+      <c r="J192" s="12">
         <v>0.68220000000000003</v>
       </c>
-      <c r="K192">
+      <c r="K192" s="11">
         <f t="shared" si="8"/>
         <v>0.42209999999999992</v>
       </c>
@@ -11019,10 +11018,10 @@
       <c r="I193">
         <v>104</v>
       </c>
-      <c r="J193" s="4">
+      <c r="J193" s="12">
         <v>0.56989999999999996</v>
       </c>
-      <c r="K193">
+      <c r="K193" s="11">
         <f t="shared" si="8"/>
         <v>0.48769999999999997</v>
       </c>
@@ -11057,10 +11056,10 @@
       <c r="I194">
         <v>200</v>
       </c>
-      <c r="J194" s="4">
+      <c r="J194" s="12">
         <v>0.86850000000000005</v>
       </c>
-      <c r="K194">
+      <c r="K194" s="11">
         <f t="shared" si="8"/>
         <v>0.46849999999999997</v>
       </c>
@@ -11095,10 +11094,10 @@
       <c r="I195">
         <v>428</v>
       </c>
-      <c r="J195" s="4">
+      <c r="J195" s="12">
         <v>0.52329999999999999</v>
       </c>
-      <c r="K195">
+      <c r="K195" s="11">
         <f t="shared" si="8"/>
         <v>0.42289999999999994</v>
       </c>
@@ -11133,10 +11132,10 @@
       <c r="I196">
         <v>576</v>
       </c>
-      <c r="J196" s="4">
+      <c r="J196" s="12">
         <v>0.46029999999999999</v>
       </c>
-      <c r="K196">
+      <c r="K196" s="11">
         <f t="shared" si="8"/>
         <v>0.39329999999999993</v>
       </c>
@@ -11159,7 +11158,7 @@
         <v>0.97299999999999998</v>
       </c>
       <c r="F197" s="10">
-        <f t="shared" ref="F197:F247" si="10">D197*12*E197</f>
+        <f t="shared" ref="F197:F247" si="10">$D197*12*$E197</f>
         <v>46704</v>
       </c>
       <c r="G197">
@@ -11171,10 +11170,10 @@
       <c r="I197">
         <v>560</v>
       </c>
-      <c r="J197" s="4">
+      <c r="J197" s="12">
         <v>0.35339999999999999</v>
       </c>
-      <c r="K197">
+      <c r="K197" s="11">
         <f t="shared" ref="K197:K247" si="11">0.5085-0.0002*$I197</f>
         <v>0.39649999999999996</v>
       </c>
@@ -11209,10 +11208,10 @@
       <c r="I198">
         <v>490</v>
       </c>
-      <c r="J198" s="4">
+      <c r="J198" s="12">
         <v>0.2301</v>
       </c>
-      <c r="K198">
+      <c r="K198" s="11">
         <f t="shared" si="11"/>
         <v>0.41049999999999998</v>
       </c>
@@ -11247,10 +11246,10 @@
       <c r="I199">
         <v>288</v>
       </c>
-      <c r="J199" s="4">
+      <c r="J199" s="12">
         <v>0.49859999999999999</v>
       </c>
-      <c r="K199">
+      <c r="K199" s="11">
         <f t="shared" si="11"/>
         <v>0.45089999999999997</v>
       </c>
@@ -11285,10 +11284,10 @@
       <c r="I200">
         <v>373</v>
       </c>
-      <c r="J200" s="4">
+      <c r="J200" s="12">
         <v>0.5151</v>
       </c>
-      <c r="K200">
+      <c r="K200" s="11">
         <f t="shared" si="11"/>
         <v>0.43389999999999995</v>
       </c>
@@ -11323,10 +11322,10 @@
       <c r="I201">
         <v>420</v>
       </c>
-      <c r="J201" s="4">
+      <c r="J201" s="12">
         <v>0.87119999999999997</v>
       </c>
-      <c r="K201">
+      <c r="K201" s="11">
         <f t="shared" si="11"/>
         <v>0.42449999999999993</v>
       </c>
@@ -11361,10 +11360,10 @@
       <c r="I202">
         <v>593</v>
       </c>
-      <c r="J202" s="4">
+      <c r="J202" s="12">
         <v>0.50680000000000003</v>
       </c>
-      <c r="K202">
+      <c r="K202" s="11">
         <f t="shared" si="11"/>
         <v>0.38989999999999991</v>
       </c>
@@ -11399,10 +11398,10 @@
       <c r="I203">
         <v>436</v>
       </c>
-      <c r="J203" s="4">
+      <c r="J203" s="12">
         <v>0.28220000000000001</v>
       </c>
-      <c r="K203">
+      <c r="K203" s="11">
         <f t="shared" si="11"/>
         <v>0.42129999999999995</v>
       </c>
@@ -11437,10 +11436,10 @@
       <c r="I204">
         <v>426</v>
       </c>
-      <c r="J204" s="4">
+      <c r="J204" s="12">
         <v>0.54249999999999998</v>
       </c>
-      <c r="K204">
+      <c r="K204" s="11">
         <f t="shared" si="11"/>
         <v>0.42329999999999995</v>
       </c>
@@ -11475,10 +11474,10 @@
       <c r="I205">
         <v>142</v>
       </c>
-      <c r="J205" s="4">
+      <c r="J205" s="12">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="K205">
+      <c r="K205" s="11">
         <f t="shared" si="11"/>
         <v>0.48009999999999997</v>
       </c>
@@ -11513,10 +11512,10 @@
       <c r="I206">
         <v>621</v>
       </c>
-      <c r="J206" s="4">
+      <c r="J206" s="12">
         <v>0.34789999999999999</v>
       </c>
-      <c r="K206">
+      <c r="K206" s="11">
         <f t="shared" si="11"/>
         <v>0.38429999999999997</v>
       </c>
@@ -11551,10 +11550,10 @@
       <c r="I207">
         <v>535</v>
       </c>
-      <c r="J207" s="4">
+      <c r="J207" s="12">
         <v>0.47670000000000001</v>
       </c>
-      <c r="K207">
+      <c r="K207" s="11">
         <f t="shared" si="11"/>
         <v>0.40149999999999997</v>
       </c>
@@ -11589,10 +11588,10 @@
       <c r="I208">
         <v>196</v>
       </c>
-      <c r="J208" s="4">
+      <c r="J208" s="12">
         <v>0.77810000000000001</v>
       </c>
-      <c r="K208">
+      <c r="K208" s="11">
         <f t="shared" si="11"/>
         <v>0.46929999999999994</v>
       </c>
@@ -11627,10 +11626,10 @@
       <c r="I209">
         <v>294</v>
       </c>
-      <c r="J209" s="4">
+      <c r="J209" s="12">
         <v>0.39729999999999999</v>
       </c>
-      <c r="K209">
+      <c r="K209" s="11">
         <f t="shared" si="11"/>
         <v>0.44969999999999993</v>
       </c>
@@ -11665,10 +11664,10 @@
       <c r="I210">
         <v>471</v>
       </c>
-      <c r="J210" s="4">
+      <c r="J210" s="12">
         <v>0.6</v>
       </c>
-      <c r="K210">
+      <c r="K210" s="11">
         <f t="shared" si="11"/>
         <v>0.41429999999999995</v>
       </c>
@@ -11703,10 +11702,10 @@
       <c r="I211">
         <v>141</v>
       </c>
-      <c r="J211" s="4">
+      <c r="J211" s="12">
         <v>0.54790000000000005</v>
       </c>
-      <c r="K211">
+      <c r="K211" s="11">
         <f t="shared" si="11"/>
         <v>0.48029999999999995</v>
       </c>
@@ -11741,10 +11740,10 @@
       <c r="I212">
         <v>994</v>
       </c>
-      <c r="J212" s="4">
+      <c r="J212" s="12">
         <v>0.43009999999999998</v>
       </c>
-      <c r="K212">
+      <c r="K212" s="11">
         <f t="shared" si="11"/>
         <v>0.30969999999999998</v>
       </c>
@@ -11779,10 +11778,10 @@
       <c r="I213">
         <v>284</v>
       </c>
-      <c r="J213" s="4">
+      <c r="J213" s="12">
         <v>0.60550000000000004</v>
       </c>
-      <c r="K213">
+      <c r="K213" s="11">
         <f t="shared" si="11"/>
         <v>0.45169999999999993</v>
       </c>
@@ -11817,10 +11816,10 @@
       <c r="I214">
         <v>236</v>
       </c>
-      <c r="J214" s="4">
+      <c r="J214" s="12">
         <v>0.56710000000000005</v>
       </c>
-      <c r="K214">
+      <c r="K214" s="11">
         <f t="shared" si="11"/>
         <v>0.46129999999999993</v>
       </c>
@@ -11855,10 +11854,10 @@
       <c r="I215">
         <v>188</v>
       </c>
-      <c r="J215" s="4">
+      <c r="J215" s="12">
         <v>0.61919999999999997</v>
       </c>
-      <c r="K215">
+      <c r="K215" s="11">
         <f t="shared" si="11"/>
         <v>0.47089999999999993</v>
       </c>
@@ -11893,10 +11892,10 @@
       <c r="I216">
         <v>329</v>
       </c>
-      <c r="J216" s="4">
+      <c r="J216" s="12">
         <v>0.70409999999999995</v>
       </c>
-      <c r="K216">
+      <c r="K216" s="11">
         <f t="shared" si="11"/>
         <v>0.44269999999999998</v>
       </c>
@@ -11931,10 +11930,10 @@
       <c r="I217">
         <v>549</v>
       </c>
-      <c r="J217" s="4">
+      <c r="J217" s="12">
         <v>0.44379999999999997</v>
       </c>
-      <c r="K217">
+      <c r="K217" s="11">
         <f t="shared" si="11"/>
         <v>0.39869999999999994</v>
       </c>
@@ -11969,10 +11968,10 @@
       <c r="I218">
         <v>652</v>
       </c>
-      <c r="J218" s="4">
+      <c r="J218" s="12">
         <v>0.4466</v>
       </c>
-      <c r="K218">
+      <c r="K218" s="11">
         <f t="shared" si="11"/>
         <v>0.37809999999999994</v>
       </c>
@@ -12007,10 +12006,10 @@
       <c r="I219">
         <v>378</v>
       </c>
-      <c r="J219" s="4">
+      <c r="J219" s="12">
         <v>0.4219</v>
       </c>
-      <c r="K219">
+      <c r="K219" s="11">
         <f t="shared" si="11"/>
         <v>0.43289999999999995</v>
       </c>
@@ -12045,10 +12044,10 @@
       <c r="I220">
         <v>255</v>
       </c>
-      <c r="J220" s="4">
+      <c r="J220" s="12">
         <v>0.59179999999999999</v>
       </c>
-      <c r="K220">
+      <c r="K220" s="11">
         <f t="shared" si="11"/>
         <v>0.45749999999999996</v>
       </c>
@@ -12083,10 +12082,10 @@
       <c r="I221">
         <v>441</v>
       </c>
-      <c r="J221" s="4">
+      <c r="J221" s="12">
         <v>0.5726</v>
       </c>
-      <c r="K221">
+      <c r="K221" s="11">
         <f t="shared" si="11"/>
         <v>0.42029999999999995</v>
       </c>
@@ -12121,10 +12120,10 @@
       <c r="I222">
         <v>356</v>
       </c>
-      <c r="J222" s="4">
+      <c r="J222" s="12">
         <v>0.42470000000000002</v>
       </c>
-      <c r="K222">
+      <c r="K222" s="11">
         <f t="shared" si="11"/>
         <v>0.43729999999999997</v>
       </c>
@@ -12159,10 +12158,10 @@
       <c r="I223">
         <v>437</v>
       </c>
-      <c r="J223" s="4">
+      <c r="J223" s="12">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="K223">
+      <c r="K223" s="11">
         <f t="shared" si="11"/>
         <v>0.42109999999999992</v>
       </c>
@@ -12197,10 +12196,10 @@
       <c r="I224">
         <v>461</v>
       </c>
-      <c r="J224" s="4">
+      <c r="J224" s="12">
         <v>0.31780000000000003</v>
       </c>
-      <c r="K224">
+      <c r="K224" s="11">
         <f t="shared" si="11"/>
         <v>0.41629999999999995</v>
       </c>
@@ -12235,10 +12234,10 @@
       <c r="I225">
         <v>669</v>
       </c>
-      <c r="J225" s="4">
+      <c r="J225" s="12">
         <v>0.31230000000000002</v>
       </c>
-      <c r="K225">
+      <c r="K225" s="11">
         <f t="shared" si="11"/>
         <v>0.37469999999999992</v>
       </c>
@@ -12273,10 +12272,10 @@
       <c r="I226">
         <v>121</v>
       </c>
-      <c r="J226" s="4">
+      <c r="J226" s="12">
         <v>0.39729999999999999</v>
       </c>
-      <c r="K226">
+      <c r="K226" s="11">
         <f t="shared" si="11"/>
         <v>0.48429999999999995</v>
       </c>
@@ -12311,10 +12310,10 @@
       <c r="I227">
         <v>437</v>
       </c>
-      <c r="J227" s="4">
+      <c r="J227" s="12">
         <v>0.61099999999999999</v>
       </c>
-      <c r="K227">
+      <c r="K227" s="11">
         <f t="shared" si="11"/>
         <v>0.42109999999999992</v>
       </c>
@@ -12349,10 +12348,10 @@
       <c r="I228">
         <v>663</v>
       </c>
-      <c r="J228" s="4">
+      <c r="J228" s="12">
         <v>0.2329</v>
       </c>
-      <c r="K228">
+      <c r="K228" s="11">
         <f t="shared" si="11"/>
         <v>0.37589999999999996</v>
       </c>
@@ -12387,10 +12386,10 @@
       <c r="I229">
         <v>337</v>
       </c>
-      <c r="J229" s="4">
+      <c r="J229" s="12">
         <v>0.50680000000000003</v>
       </c>
-      <c r="K229">
+      <c r="K229" s="11">
         <f t="shared" si="11"/>
         <v>0.44109999999999994</v>
       </c>
@@ -12425,10 +12424,10 @@
       <c r="I230">
         <v>447</v>
       </c>
-      <c r="J230" s="4">
+      <c r="J230" s="12">
         <v>0.61639999999999995</v>
       </c>
-      <c r="K230">
+      <c r="K230" s="11">
         <f t="shared" si="11"/>
         <v>0.41909999999999992</v>
       </c>
@@ -12463,10 +12462,10 @@
       <c r="I231">
         <v>610</v>
       </c>
-      <c r="J231" s="4">
+      <c r="J231" s="12">
         <v>0.1014</v>
       </c>
-      <c r="K231">
+      <c r="K231" s="11">
         <f t="shared" si="11"/>
         <v>0.38649999999999995</v>
       </c>
@@ -12501,10 +12500,10 @@
       <c r="I232">
         <v>302</v>
       </c>
-      <c r="J232" s="4">
+      <c r="J232" s="12">
         <v>0.31509999999999999</v>
       </c>
-      <c r="K232">
+      <c r="K232" s="11">
         <f t="shared" si="11"/>
         <v>0.44809999999999994</v>
       </c>
@@ -12539,10 +12538,10 @@
       <c r="I233">
         <v>213</v>
       </c>
-      <c r="J233" s="4">
+      <c r="J233" s="12">
         <v>0.65210000000000001</v>
       </c>
-      <c r="K233">
+      <c r="K233" s="11">
         <f t="shared" si="11"/>
         <v>0.46589999999999998</v>
       </c>
@@ -12577,10 +12576,10 @@
       <c r="I234">
         <v>364</v>
       </c>
-      <c r="J234" s="4">
+      <c r="J234" s="12">
         <v>0.51229999999999998</v>
       </c>
-      <c r="K234">
+      <c r="K234" s="11">
         <f t="shared" si="11"/>
         <v>0.43569999999999998</v>
       </c>
@@ -12615,10 +12614,10 @@
       <c r="I235">
         <v>251</v>
       </c>
-      <c r="J235" s="4">
+      <c r="J235" s="12">
         <v>0.62739999999999996</v>
       </c>
-      <c r="K235">
+      <c r="K235" s="11">
         <f t="shared" si="11"/>
         <v>0.45829999999999993</v>
       </c>
@@ -12653,10 +12652,10 @@
       <c r="I236">
         <v>343</v>
       </c>
-      <c r="J236" s="4">
+      <c r="J236" s="12">
         <v>0.39729999999999999</v>
       </c>
-      <c r="K236">
+      <c r="K236" s="11">
         <f t="shared" si="11"/>
         <v>0.43989999999999996</v>
       </c>
@@ -12691,10 +12690,10 @@
       <c r="I237">
         <v>125</v>
       </c>
-      <c r="J237" s="4">
+      <c r="J237" s="12">
         <v>0.37530000000000002</v>
       </c>
-      <c r="K237">
+      <c r="K237" s="11">
         <f t="shared" si="11"/>
         <v>0.48349999999999993</v>
       </c>
@@ -12729,10 +12728,10 @@
       <c r="I238">
         <v>251</v>
       </c>
-      <c r="J238" s="4">
+      <c r="J238" s="12">
         <v>0.3342</v>
       </c>
-      <c r="K238">
+      <c r="K238" s="11">
         <f t="shared" si="11"/>
         <v>0.45829999999999993</v>
       </c>
@@ -12767,10 +12766,10 @@
       <c r="I239">
         <v>404</v>
       </c>
-      <c r="J239" s="4">
+      <c r="J239" s="12">
         <v>0.36159999999999998</v>
       </c>
-      <c r="K239">
+      <c r="K239" s="11">
         <f t="shared" si="11"/>
         <v>0.42769999999999997</v>
       </c>
@@ -12805,10 +12804,10 @@
       <c r="I240">
         <v>161</v>
       </c>
-      <c r="J240" s="4">
+      <c r="J240" s="12">
         <v>0.26579999999999998</v>
       </c>
-      <c r="K240">
+      <c r="K240" s="11">
         <f t="shared" si="11"/>
         <v>0.47629999999999995</v>
       </c>
@@ -12843,10 +12842,10 @@
       <c r="I241">
         <v>408</v>
       </c>
-      <c r="J241" s="4">
+      <c r="J241" s="12">
         <v>0.38629999999999998</v>
       </c>
-      <c r="K241">
+      <c r="K241" s="11">
         <f t="shared" si="11"/>
         <v>0.42689999999999995</v>
       </c>
@@ -12881,10 +12880,10 @@
       <c r="I242">
         <v>284</v>
       </c>
-      <c r="J242" s="4">
+      <c r="J242" s="12">
         <v>0.31509999999999999</v>
       </c>
-      <c r="K242">
+      <c r="K242" s="11">
         <f t="shared" si="11"/>
         <v>0.45169999999999993</v>
       </c>
@@ -12919,10 +12918,10 @@
       <c r="I243">
         <v>443</v>
       </c>
-      <c r="J243" s="4">
+      <c r="J243" s="12">
         <v>0.55620000000000003</v>
       </c>
-      <c r="K243">
+      <c r="K243" s="11">
         <f t="shared" si="11"/>
         <v>0.41989999999999994</v>
       </c>
@@ -12957,10 +12956,10 @@
       <c r="I244">
         <v>718</v>
       </c>
-      <c r="J244" s="4">
+      <c r="J244" s="12">
         <v>0.44929999999999998</v>
       </c>
-      <c r="K244">
+      <c r="K244" s="11">
         <f t="shared" si="11"/>
         <v>0.36489999999999995</v>
       </c>
@@ -12995,10 +12994,10 @@
       <c r="I245">
         <v>478</v>
       </c>
-      <c r="J245" s="4">
+      <c r="J245" s="12">
         <v>0.31780000000000003</v>
       </c>
-      <c r="K245">
+      <c r="K245" s="11">
         <f t="shared" si="11"/>
         <v>0.41289999999999993</v>
       </c>
@@ -13033,10 +13032,10 @@
       <c r="I246">
         <v>533</v>
       </c>
-      <c r="J246" s="4">
+      <c r="J246" s="12">
         <v>0.51229999999999998</v>
       </c>
-      <c r="K246">
+      <c r="K246" s="11">
         <f t="shared" si="11"/>
         <v>0.40189999999999992</v>
       </c>
@@ -13071,10 +13070,10 @@
       <c r="I247">
         <v>566</v>
       </c>
-      <c r="J247" s="4">
+      <c r="J247" s="12">
         <v>0.36990000000000001</v>
       </c>
-      <c r="K247">
+      <c r="K247" s="11">
         <f t="shared" si="11"/>
         <v>0.39529999999999993</v>
       </c>
